--- a/biology/Zoologie/Darevskia_unisexualis/Darevskia_unisexualis.xlsx
+++ b/biology/Zoologie/Darevskia_unisexualis/Darevskia_unisexualis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Darevskia unisexualis est une espèce de sauriens de la famille des Lacertidae[1]. Son nom dérive de l’herpétologiste russe Ilia Darevski (1924-2009).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Darevskia unisexualis est une espèce de sauriens de la famille des Lacertidae. Son nom dérive de l’herpétologiste russe Ilia Darevski (1924-2009).
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Apparence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La longueur du corps de la Darevskia unisexualis est d'environ 7 cm, et sa queue est approximativement deux fois plus longue. La tête, à l'instar des autres Darevskia, est assez aplatie.
-La couleur de la partie supérieure du corps peut être marron-beige, marron clair, sable ou gris-olivâtre. Le dos comporte un motif réticulaire. La partie inférieure du corps est toujours de couleur blanc-mat[2].
+La couleur de la partie supérieure du corps peut être marron-beige, marron clair, sable ou gris-olivâtre. Le dos comporte un motif réticulaire. La partie inférieure du corps est toujours de couleur blanc-mat.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Arménie (dans les parties montagneuses du Nord et du Centre), au Sud de la Géorgie et dans le Nord-Est de la Turquie (en particulier les provinces d'Erzurum, d'Ardahan et d'Ağrı)[1]. On la trouve entre 1700 et 2 000 m au-dessus du niveau de la mer, principalement dans les milieux rocheux des zones montagneuses steppiques[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Arménie (dans les parties montagneuses du Nord et du Centre), au Sud de la Géorgie et dans le Nord-Est de la Turquie (en particulier les provinces d'Erzurum, d'Ardahan et d'Ağrı). On la trouve entre 1700 et 2 000 m au-dessus du niveau de la mer, principalement dans les milieux rocheux des zones montagneuses steppiques,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est parthénogénique[1]. Elle est issue d'une hybridation entre les espèces Darevskia raddei et Darevskia valentini selon Murphy, Fu, MacCulloch, Darevsky et Kupriyanova[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est parthénogénique. Elle est issue d'une hybridation entre les espèces Darevskia raddei et Darevskia valentini selon Murphy, Fu, MacCulloch, Darevsky et Kupriyanova.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Mesures de protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est inscrite sur la Liste rouge de l'UICN (notée Near Threatened, c'est-à-dire Quasi Menacée)[3], mais aussi sur le Livre rouge de l'Arménie (ru) (ou elle est considérée comme VU B1a - « vulnérable »)[4]. En Arménie, elle est protégée dans le Parc National Sevan (en)[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est inscrite sur la Liste rouge de l'UICN (notée Near Threatened, c'est-à-dire Quasi Menacée), mais aussi sur le Livre rouge de l'Arménie (ru) (ou elle est considérée comme VU B1a - « vulnérable »). En Arménie, elle est protégée dans le Parc National Sevan (en).
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Darevsky, 1966 : Natural parthogenesis in a polymorphic group of Caucasian Rock lizards related to Lacerta saxicola Eversmann. Journal of the Ohio Herpetological Society, vol. 5, n°4, p. 115-152.</t>
         </is>
